--- a/Week6/Assignment/TestAutomation/src/test/resources/MercuryData.xlsx
+++ b/Week6/Assignment/TestAutomation/src/test/resources/MercuryData.xlsx
@@ -1,25 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanm\Desktop\Work\Batches\180121_SDET\Repo\Week6\InClassExamples\180121_week6\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynda\Documents\Work\RevatureQTraining\180121_SDET\Week6\Assignment\TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0166871-16F0-4A33-AB75-D4871E8E6A5C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="FlightFinder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lynda Ademola</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5D8151AE-7FC1-4907-802F-A84536ABC378}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>A number between 0 - 3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -52,13 +78,31 @@
   </si>
   <si>
     <t>tropicana</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
+    <t>departfrom</t>
+  </si>
+  <si>
+    <t>monthfrom</t>
+  </si>
+  <si>
+    <t>destto</t>
+  </si>
+  <si>
+    <t>monthto</t>
+  </si>
+  <si>
+    <t>airline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -67,6 +111,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,100 +456,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8859F885-66BA-4ADA-9D1C-379C2BCA442C}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Week6/Assignment/TestAutomation/src/test/resources/MercuryData.xlsx
+++ b/Week6/Assignment/TestAutomation/src/test/resources/MercuryData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynda\Documents\Work\RevatureQTraining\180121_SDET\Week6\Assignment\TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0166871-16F0-4A33-AB75-D4871E8E6A5C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE1AD20-CDE3-4F69-8456-31EB20AD8E64}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="FlightFinder" sheetId="2" r:id="rId2"/>
+    <sheet name="Flight" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -40,12 +41,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8BB43DB4-DAE1-49E3-AD22-46F9A8035D96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>value between 0 - 9</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -96,6 +111,12 @@
   </si>
   <si>
     <t>airline</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>return</t>
   </si>
 </sst>
 </file>
@@ -522,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8859F885-66BA-4ADA-9D1C-379C2BCA442C}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -597,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -691,4 +712,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB58492-EA9D-4962-8FDA-75355A44DF9C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>